--- a/ExcelPelicula/Lista_Peliculas.xlsx
+++ b/ExcelPelicula/Lista_Peliculas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Lista de peliculas</t>
   </si>
@@ -41,25 +41,22 @@
     <t>ciudad del premio</t>
   </si>
   <si>
-    <t>d</t>
+    <t>gladiator</t>
   </si>
   <si>
-    <t>Romance</t>
+    <t>roma</t>
   </si>
   <si>
-    <t>g</t>
+    <t>steven spilberg</t>
   </si>
   <si>
-    <t>h</t>
+    <t>Accion</t>
   </si>
   <si>
-    <t>sd</t>
+    <t>oscar</t>
   </si>
   <si>
-    <t>xc</t>
-  </si>
-  <si>
-    <t>No tiene</t>
+    <t>america</t>
   </si>
 </sst>
 </file>
@@ -104,17 +101,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.12890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.01171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.61328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.15234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.3828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.77734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.55078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.34375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.67578125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="18.3203125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="17.18359375" customWidth="true" bestFit="true"/>
@@ -159,42 +156,22 @@
         <v>3.0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
